--- a/output/Termproject/2G/1D2G.xlsx
+++ b/output/Termproject/2G/1D2G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\학부연구생\원자로이론\[로이론] TermProject\TermProject\output\Termproject\2G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7A80F-5D3C-4328-BDD4-A2703419860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E3111-089A-48E4-95DF-B31A80339E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{553B2908-ADAB-4650-A086-D04A4DCC315E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{553B2908-ADAB-4650-A086-D04A4DCC315E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>mesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>group2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,17 +1505,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1843,309 +1839,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.59504</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5937400000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5911299999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5872200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5820100000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5754999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5676699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5585699999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5481600000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5364699999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5234800000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.50922</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4936699999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4768500000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4587599999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4394</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.4187700000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.3968999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.37378</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.3494099999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.3238099999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2969999999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.2689500000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.2397</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.2092299999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.1775699999999993</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.14473</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.1107100000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.0755300000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.03918</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.0016999999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9630700000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9233200000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.88246</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.8405</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7974399999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7532999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.70811</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.6618599999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.6145700000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.5662500000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.5169199999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.4665900000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.4152800000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.363</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3097600000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.2555800000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.2004900000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1444800000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.08758</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.0297999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.9711699999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.91168</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.8513799999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.79027</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.72837</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.6657030000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.6022790000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.5381179999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.4732609999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.4077099999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.3415029999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.2746560000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.2072260000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.1392250000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.0707269999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.001782</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.932472</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.862916</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7932570000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7237100000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.6545589999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.586233</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.5193030000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.454604</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3933300000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.3371849999999998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.288619</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.2511490000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.2298309999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.2386089999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.2270510000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.195098</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.1480440000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.0900909999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.024553</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.95401400000000003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.88046100000000005</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.80539899999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.729935</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.65485899999999997</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.580704</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.50779700000000005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.43629699999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.36623619999999996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.29754120000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.23005810000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.16357770000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.78406E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.2561979999999997E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,6 +1871,7 @@
         <c:axId val="1907020079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2476,26 +2176,7 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
+        <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
         <c:manualLayout>
@@ -3144,13 +2825,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>568777</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>340178</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -3498,15 +3179,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E49C6-BA30-4FF3-96D5-4BAD808A5C98}">
-  <dimension ref="C1:F101"/>
+  <dimension ref="C1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3516,11 +3197,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -3530,12 +3208,8 @@
       <c r="E2">
         <v>1.71773</v>
       </c>
-      <c r="F2">
-        <f>SUM(D2,E2)</f>
-        <v>4.59504</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -3545,12 +3219,8 @@
       <c r="E3">
         <v>1.7172499999999999</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">SUM(D3,E3)</f>
-        <v>4.5937400000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>3</v>
       </c>
@@ -3560,12 +3230,8 @@
       <c r="E4">
         <v>1.71627</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>4.5911299999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>4</v>
       </c>
@@ -3575,12 +3241,8 @@
       <c r="E5">
         <v>1.7148099999999999</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4.5872200000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>5</v>
       </c>
@@ -3590,12 +3252,8 @@
       <c r="E6">
         <v>1.71286</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.5820100000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>6</v>
       </c>
@@ -3605,12 +3263,8 @@
       <c r="E7">
         <v>1.7104299999999999</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4.5754999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
@@ -3620,12 +3274,8 @@
       <c r="E8">
         <v>1.7075</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4.5676699999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
@@ -3635,12 +3285,8 @@
       <c r="E9">
         <v>1.7040999999999999</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4.5585699999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -3650,12 +3296,8 @@
       <c r="E10">
         <v>1.70021</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>4.5481600000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>10</v>
       </c>
@@ -3665,12 +3307,8 @@
       <c r="E11">
         <v>1.69584</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>4.5364699999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>11</v>
       </c>
@@ -3680,12 +3318,8 @@
       <c r="E12">
         <v>1.6909799999999999</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4.5234800000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>12</v>
       </c>
@@ -3695,12 +3329,8 @@
       <c r="E13">
         <v>1.6856500000000001</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>4.50922</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>13</v>
       </c>
@@ -3710,12 +3340,8 @@
       <c r="E14">
         <v>1.67984</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>4.4936699999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>14</v>
       </c>
@@ -3725,12 +3351,8 @@
       <c r="E15">
         <v>1.6735500000000001</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>4.4768500000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>15</v>
       </c>
@@ -3740,12 +3362,8 @@
       <c r="E16">
         <v>1.66679</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>4.4587599999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>16</v>
       </c>
@@ -3755,12 +3373,8 @@
       <c r="E17">
         <v>1.6595500000000001</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4.4394</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>17</v>
       </c>
@@ -3770,12 +3384,8 @@
       <c r="E18">
         <v>1.65184</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>4.4187700000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>18</v>
       </c>
@@ -3785,12 +3395,8 @@
       <c r="E19">
         <v>1.6436599999999999</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>4.3968999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>19</v>
       </c>
@@ -3800,12 +3406,8 @@
       <c r="E20">
         <v>1.6350199999999999</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>4.37378</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>20</v>
       </c>
@@ -3815,12 +3417,8 @@
       <c r="E21">
         <v>1.62591</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>4.3494099999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>21</v>
       </c>
@@ -3830,12 +3428,8 @@
       <c r="E22">
         <v>1.6163400000000001</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4.3238099999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>22</v>
       </c>
@@ -3845,12 +3439,8 @@
       <c r="E23">
         <v>1.60632</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>4.2969999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>23</v>
       </c>
@@ -3860,12 +3450,8 @@
       <c r="E24">
         <v>1.5958300000000001</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>4.2689500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>24</v>
       </c>
@@ -3875,12 +3461,8 @@
       <c r="E25">
         <v>1.5849</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>4.2397</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>25</v>
       </c>
@@ -3890,12 +3472,8 @@
       <c r="E26">
         <v>1.57351</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>4.2092299999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>26</v>
       </c>
@@ -3905,12 +3483,8 @@
       <c r="E27">
         <v>1.5616699999999999</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>4.1775699999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>27</v>
       </c>
@@ -3920,12 +3494,8 @@
       <c r="E28">
         <v>1.5494000000000001</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>4.14473</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>28</v>
       </c>
@@ -3935,12 +3505,8 @@
       <c r="E29">
         <v>1.53668</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>4.1107100000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>29</v>
       </c>
@@ -3950,12 +3516,8 @@
       <c r="E30">
         <v>1.5235300000000001</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>4.0755300000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>30</v>
       </c>
@@ -3965,12 +3527,8 @@
       <c r="E31">
         <v>1.5099400000000001</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>4.03918</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>31</v>
       </c>
@@ -3980,12 +3538,8 @@
       <c r="E32">
         <v>1.49593</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4.0016999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>32</v>
       </c>
@@ -3995,12 +3549,8 @@
       <c r="E33">
         <v>1.48149</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>3.9630700000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>33</v>
       </c>
@@ -4010,12 +3560,8 @@
       <c r="E34">
         <v>1.4666300000000001</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>3.9233200000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>34</v>
       </c>
@@ -4025,12 +3571,8 @@
       <c r="E35">
         <v>1.4513499999999999</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>3.88246</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>35</v>
       </c>
@@ -4040,12 +3582,8 @@
       <c r="E36">
         <v>1.43567</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>3.8405</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>36</v>
       </c>
@@ -4055,12 +3593,8 @@
       <c r="E37">
         <v>1.41957</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>3.7974399999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>37</v>
       </c>
@@ -4070,12 +3604,8 @@
       <c r="E38">
         <v>1.40307</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>3.7532999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>38</v>
       </c>
@@ -4085,12 +3615,8 @@
       <c r="E39">
         <v>1.38618</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>3.70811</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>39</v>
       </c>
@@ -4100,12 +3626,8 @@
       <c r="E40">
         <v>1.3688899999999999</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>3.6618599999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>40</v>
       </c>
@@ -4115,12 +3637,8 @@
       <c r="E41">
         <v>1.35121</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>3.6145700000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>41</v>
       </c>
@@ -4130,12 +3648,8 @@
       <c r="E42">
         <v>1.3331500000000001</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>3.5662500000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>42</v>
       </c>
@@ -4145,12 +3659,8 @@
       <c r="E43">
         <v>1.31471</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>3.5169199999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>43</v>
       </c>
@@ -4160,12 +3670,8 @@
       <c r="E44">
         <v>1.29589</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>3.4665900000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>44</v>
       </c>
@@ -4175,12 +3681,8 @@
       <c r="E45">
         <v>1.27671</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>3.4152800000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>45</v>
       </c>
@@ -4190,12 +3692,8 @@
       <c r="E46">
         <v>1.2571699999999999</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>3.363</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>46</v>
       </c>
@@ -4205,12 +3703,8 @@
       <c r="E47">
         <v>1.2372700000000001</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>3.3097600000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>47</v>
       </c>
@@ -4220,12 +3714,8 @@
       <c r="E48">
         <v>1.2170099999999999</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>3.2555800000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>48</v>
       </c>
@@ -4235,12 +3725,8 @@
       <c r="E49">
         <v>1.19642</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>3.2004900000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>49</v>
       </c>
@@ -4250,12 +3736,8 @@
       <c r="E50">
         <v>1.1754800000000001</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>3.1444800000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>50</v>
       </c>
@@ -4265,12 +3747,8 @@
       <c r="E51">
         <v>1.15421</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>3.08758</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>51</v>
       </c>
@@ -4280,12 +3758,8 @@
       <c r="E52">
         <v>1.1326099999999999</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>3.0297999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>52</v>
       </c>
@@ -4295,12 +3769,8 @@
       <c r="E53">
         <v>1.1107</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>2.9711699999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>53</v>
       </c>
@@ -4310,12 +3780,8 @@
       <c r="E54">
         <v>1.08846</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>2.91168</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>54</v>
       </c>
@@ -4325,12 +3791,8 @@
       <c r="E55">
         <v>1.06592</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>2.8513799999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>55</v>
       </c>
@@ -4340,12 +3802,8 @@
       <c r="E56">
         <v>1.04308</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>2.79027</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>56</v>
       </c>
@@ -4355,12 +3813,8 @@
       <c r="E57">
         <v>1.0199499999999999</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>2.72837</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>57</v>
       </c>
@@ -4370,12 +3824,8 @@
       <c r="E58">
         <v>0.996533</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>2.6657030000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>58</v>
       </c>
@@ -4385,12 +3835,8 @@
       <c r="E59">
         <v>0.97283900000000001</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>2.6022790000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>59</v>
       </c>
@@ -4400,12 +3846,8 @@
       <c r="E60">
         <v>0.948878</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>2.5381179999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>60</v>
       </c>
@@ -4415,12 +3857,8 @@
       <c r="E61">
         <v>0.92466099999999996</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>2.4732609999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>61</v>
       </c>
@@ -4430,12 +3868,8 @@
       <c r="E62">
         <v>0.9002</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>2.4077099999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>62</v>
       </c>
@@ -4445,12 +3879,8 @@
       <c r="E63">
         <v>0.87551299999999999</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>2.3415029999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>63</v>
       </c>
@@ -4460,12 +3890,8 @@
       <c r="E64">
         <v>0.85061600000000004</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>2.2746560000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>64</v>
       </c>
@@ -4475,12 +3901,8 @@
       <c r="E65">
         <v>0.82553600000000005</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>2.2072260000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>65</v>
       </c>
@@ -4490,12 +3912,8 @@
       <c r="E66">
         <v>0.80030500000000004</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>2.1392250000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>66</v>
       </c>
@@ -4505,12 +3923,8 @@
       <c r="E67">
         <v>0.77496699999999996</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F101" si="1">SUM(D67,E67)</f>
-        <v>2.0707269999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>67</v>
       </c>
@@ -4520,12 +3934,8 @@
       <c r="E68">
         <v>0.74958199999999997</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>2.001782</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>68</v>
       </c>
@@ -4535,12 +3945,8 @@
       <c r="E69">
         <v>0.72423199999999999</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>1.932472</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>69</v>
       </c>
@@ -4550,12 +3956,8 @@
       <c r="E70">
         <v>0.69903599999999999</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>1.862916</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>70</v>
       </c>
@@ -4565,12 +3967,8 @@
       <c r="E71">
         <v>0.67415700000000001</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>1.7932570000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>71</v>
       </c>
@@ -4580,12 +3978,8 @@
       <c r="E72">
         <v>0.64983000000000002</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>1.7237100000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>72</v>
       </c>
@@ -4595,12 +3989,8 @@
       <c r="E73">
         <v>0.62638899999999997</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>1.6545589999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>73</v>
       </c>
@@ -4610,12 +4000,8 @@
       <c r="E74">
         <v>0.60431199999999996</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>1.586233</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>74</v>
       </c>
@@ -4625,12 +4011,8 @@
       <c r="E75">
         <v>0.58428500000000005</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>1.5193030000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>75</v>
       </c>
@@ -4640,12 +4022,8 @@
       <c r="E76">
         <v>0.56728999999999996</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>1.454604</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>76</v>
       </c>
@@ -4655,12 +4033,8 @@
       <c r="E77">
         <v>0.55474100000000004</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>1.3933300000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>77</v>
       </c>
@@ -4670,12 +4044,8 @@
       <c r="E78">
         <v>0.54866899999999996</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>1.3371849999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>78</v>
       </c>
@@ -4685,12 +4055,8 @@
       <c r="E79">
         <v>0.55199699999999996</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>1.288619</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>79</v>
       </c>
@@ -4700,12 +4066,8 @@
       <c r="E80">
         <v>0.56893000000000005</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>1.2511490000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>80</v>
       </c>
@@ -4715,12 +4077,8 @@
       <c r="E81">
         <v>0.60552300000000003</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>1.2298309999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>81</v>
       </c>
@@ -4730,12 +4088,8 @@
       <c r="E82">
         <v>0.67977699999999996</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>1.2386089999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>82</v>
       </c>
@@ -4745,12 +4099,8 @@
       <c r="E83">
         <v>0.72923800000000005</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>1.2270510000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>83</v>
       </c>
@@ -4760,12 +4110,8 @@
       <c r="E84">
         <v>0.75200500000000003</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>1.195098</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>84</v>
       </c>
@@ -4775,12 +4121,8 @@
       <c r="E85">
         <v>0.75406200000000001</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>1.1480440000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>85</v>
       </c>
@@ -4790,12 +4132,8 @@
       <c r="E86">
         <v>0.74023499999999998</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>1.0900909999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>86</v>
       </c>
@@ -4805,12 +4143,8 @@
       <c r="E87">
         <v>0.714395</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>1.024553</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>87</v>
       </c>
@@ -4820,12 +4154,8 @@
       <c r="E88">
         <v>0.67962900000000004</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>0.95401400000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>88</v>
       </c>
@@ -4835,12 +4165,8 @@
       <c r="E89">
         <v>0.63837600000000005</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>0.88046100000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>89</v>
       </c>
@@ -4850,12 +4176,8 @@
       <c r="E90">
         <v>0.59255000000000002</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>0.80539899999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>90</v>
       </c>
@@ -4865,12 +4187,8 @@
       <c r="E91">
         <v>0.54362900000000003</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>0.729935</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>91</v>
       </c>
@@ -4880,12 +4198,8 @@
       <c r="E92">
         <v>0.49273800000000001</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>0.65485899999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>92</v>
       </c>
@@ -4895,12 +4209,8 @@
       <c r="E93">
         <v>0.440716</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>0.580704</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>93</v>
       </c>
@@ -4910,12 +4220,8 @@
       <c r="E94">
         <v>0.38817000000000002</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>0.50779700000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>94</v>
       </c>
@@ -4925,12 +4231,8 @@
       <c r="E95">
         <v>0.33551799999999998</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>0.43629699999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>95</v>
       </c>
@@ -4940,12 +4242,8 @@
       <c r="E96">
         <v>0.28302899999999998</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>0.36623619999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>96</v>
       </c>
@@ -4955,12 +4253,8 @@
       <c r="E97">
         <v>0.230853</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>0.29754120000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>97</v>
       </c>
@@ -4970,12 +4264,8 @@
       <c r="E98">
         <v>0.17904500000000001</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>0.23005810000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>98</v>
       </c>
@@ -4985,12 +4275,8 @@
       <c r="E99">
         <v>0.12759400000000001</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>0.16357770000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>99</v>
       </c>
@@ -5000,12 +4286,8 @@
       <c r="E100">
         <v>7.6430899999999996E-2</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>9.78406E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>100</v>
       </c>
@@ -5014,10 +4296,6 @@
       </c>
       <c r="E101">
         <v>2.54554E-2</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>3.2561979999999997E-2</v>
       </c>
     </row>
   </sheetData>
